--- a/Data/aearep-91/candidatepackages.xlsx
+++ b/Data/aearep-91/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,45 +25,45 @@
     <t>fs</t>
   </si>
   <si>
+    <t>rd</t>
+  </si>
+  <si>
     <t>table1</t>
   </si>
   <si>
-    <t>rd</t>
-  </si>
-  <si>
     <t>rdrobust</t>
   </si>
   <si>
     <t>texdoc</t>
   </si>
   <si>
+    <t>mean2</t>
+  </si>
+  <si>
     <t>matsave</t>
   </si>
   <si>
-    <t>mean2</t>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>split</t>
   </si>
   <si>
     <t>usepackage</t>
   </si>
   <si>
-    <t>pv</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>split</t>
-  </si>
-  <si>
     <t>rev</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>ted</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>extreme</t>
   </si>
   <si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>master_rep.do</t>
@@ -175,7 +172,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -187,7 +184,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -199,7 +196,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -211,7 +208,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -223,7 +220,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -235,7 +232,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -247,7 +244,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -259,7 +256,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -271,10 +268,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="C10">
-        <v>0.16710875928401947</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D10"/>
     </row>
@@ -283,10 +280,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="C11">
-        <v>0.1840185672044754</v>
+        <v>0.20297521352767944</v>
       </c>
       <c r="D11"/>
     </row>
@@ -295,10 +292,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="C12">
-        <v>0.18766577541828156</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D12"/>
     </row>
@@ -307,10 +304,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>606</v>
+        <v>739</v>
       </c>
       <c r="C13">
-        <v>0.20092837512493134</v>
+        <v>0.24429751932621002</v>
       </c>
       <c r="D13"/>
     </row>
@@ -319,10 +316,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>698</v>
+        <v>746</v>
       </c>
       <c r="C14">
-        <v>0.23143236339092255</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D14"/>
     </row>
@@ -331,10 +328,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1031</v>
+        <v>955</v>
       </c>
       <c r="C15">
-        <v>0.34184351563453674</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D15"/>
     </row>
@@ -343,10 +340,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1133</v>
+        <v>1010</v>
       </c>
       <c r="C16">
-        <v>0.37566313147544861</v>
+        <v>0.33388429880142212</v>
       </c>
       <c r="D16"/>
     </row>
@@ -355,10 +352,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1260</v>
+        <v>1169</v>
       </c>
       <c r="C17">
-        <v>0.41777187585830688</v>
+        <v>0.3864462673664093</v>
       </c>
       <c r="D17"/>
     </row>
@@ -367,10 +364,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1285</v>
+        <v>1235</v>
       </c>
       <c r="C18">
-        <v>0.4260610044002533</v>
+        <v>0.40826445817947388</v>
       </c>
       <c r="D18"/>
     </row>
@@ -379,10 +376,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1476</v>
+        <v>1368</v>
       </c>
       <c r="C19">
-        <v>0.48938992619514465</v>
+        <v>0.45223140716552734</v>
       </c>
       <c r="D19"/>
     </row>
@@ -391,10 +388,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C20">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D20"/>
     </row>
@@ -403,10 +400,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1660</v>
+        <v>1497</v>
       </c>
       <c r="C21">
-        <v>0.55039787292480469</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D21"/>
     </row>
@@ -415,10 +412,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2217</v>
+        <v>2008</v>
       </c>
       <c r="C22">
-        <v>0.73507958650588989</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D22"/>
     </row>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -463,14 +460,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>